--- a/outputs/o__Oscillospirales_train.xlsx
+++ b/outputs/o__Oscillospirales_train.xlsx
@@ -10,6 +10,10 @@
     <sheet name="o__Osci-b" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="o__Osci-b1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="o__Osci-b2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="f__Acutalibacteraceae-b" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="f__Oscillospiraceae-b" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="f__Ruminococcaceae-b" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2895,4 +2899,2497 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900540235.1_0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.24881193586434</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-12.15931944321163</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.436315324519548</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002410755.1_0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.03307557164988105</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.964668172444874</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6336494147603738</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900317765.1_0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.931909690374388</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.348676383102291</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.710518778053389</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900548305.1_0</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9189342396078811</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.809831589151198</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.231388924080704</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003514385.1_0</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.4360151892453816</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.310095180006517</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.261810274286308</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_000432435.1_0</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1.051076443435464</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.781766048728278</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-2.667567977425877</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_000433975.1_0</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.131847282283128</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-11.00168724714567</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-5.848516488155106</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900314355.1_0</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1.218969960371747</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-10.80634007774797</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.633380549265415</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004556705.1_0</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.600740006967208</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6.67196944277793</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-2.828096857300871</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900316555.1_0</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4486396321028963</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.257853855039456</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.162330271290507</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900315605.1_0</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.044944346537248</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-5.757303656017022</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.557335436505337</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900546265.1_0</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2210746186353322</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-4.241721851161047</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.385482329268332</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000752215.1_0</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.00466034256148</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.172582945068153</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.3296451991318211</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900556765.1_0</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.7953526028255415</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.861599488470649</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-2.316461884136208</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900543395.1_0</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.2762863179173505</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-8.830577327313751</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.4450268252197959</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900549155.1_0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.2101035900334232</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-7.76668385782062</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.5428896779569251</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900543555.1_0</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.293864130423571</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3620541744527698</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.649028386249999</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900553255.1_0</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.6787241530259434</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-3.555445649519911</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9165788949918564</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900547445.1_0</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.613001017734371</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-6.907416163840638</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-3.238079974561058</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900552605.1_0</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1.672052558360393</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-7.156759319730947</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-2.808474089766245</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900317815.1_0</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.1694027397219425</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.153965987554027</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9098095841619284</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000154345.1_0</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7530978913117661</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.554756766059035</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.33372934416336</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002371215.1_0</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1.083215065864354</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.142978383964445</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.689468553276908</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002431285.1_0</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.899326544972973</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.049452417014358</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.762415606353861</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900545625.1_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4337363668828142</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.858321267882129</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-2.76346046083512</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004560275.1_0</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1.544480635615565</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-9.33437036484921</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-3.022968860231463</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_000434995.1_0</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.513855366799131</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-11.97999058681201</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-1.679588822231758</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900100595.1_0</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.009490468911015112</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.06154882265102</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1.266232501724465</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003538135.1_0</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4648038114435047</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.03580475925456031</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-2.910839974543666</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002449395.1_0</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.564480573912517</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.951607889515802</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.6566600012724323</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_000435275.1_0</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9487188216787044</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-17.91893483881461</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.3293981222843337</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002315765.1_0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1.353541069288733</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-8.229915928985688</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-2.802221086068921</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003520555.1_0</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1.596507067580958</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-5.737631133940563</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-1.658169735973072</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900321515.1_0</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8978241289069059</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.291271176578443</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-3.283145178878298</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004555265.1_0</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.3660783993655243</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-6.831611112714426</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.2468276760984855</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900321595.1_0</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.7135432779287409</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.837481270301545</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-5.39688907530673</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002315685.1_0</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.076178723754508</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-8.482347596249987</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1.936068428072929</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900315465.1_0</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.263347941002909</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-11.24658276679365</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.151962482378999</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002316805.1_0</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6562585098951954</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-4.969570572168413</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-2.311236797170172</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002160515.1_0</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.062364829865933</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-13.63449721870338</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1.173707115891288</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900240385.1_0</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.2817310343038378</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-7.358413620633837</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.476088463145717</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002353935.1_0</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.86863966208011</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-10.08251807318375</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-2.492202941902095</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900548545.1_0</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.8287352462524187</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.276463556655754</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.6716274994622955</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900319835.1_0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1.715098008371584</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.711652748895085</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-6.571547418966384</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002161675.1_0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1483513343797272</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.022621373409939</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-4.045838554538118</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900548615.1_0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-2.302719982935973</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.112695949900581</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5.858839819136783</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000508885.1_0</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.754756778025937</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.448453177681189</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-9.470329992923848</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900317855.1_0</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.844940831757185</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.858385955641011</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-7.514043498337759</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900549395.1_0</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.169360798263531</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.4543277773651</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-4.436286473866185</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900313295.1_0</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2.28879916258023</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.892780159617728</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-7.116040576689253</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004556965.1_0</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.8599621455663033</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.625255925185842</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-4.463445342861717</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003522945.1_0</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.552097592147792</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.025024248453074</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.714595096540997</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002493305.1_0</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.560063008976983</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.615004794556929</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-2.226600097095236</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900313925.1_0</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.156891729119209</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.976529430280004</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.762157406546223</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900543935.1_0</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-2.468317618139069</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.609061725696481</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-13.51763664521883</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_000436735.1_0</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.265216710193877</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8195617625762754</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-2.270139808987396</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000239295.1_0</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.9259543887882496</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.544359533040597</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-9.547102419206135</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900554425.1_0</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-2.211176769814646</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.774577394365597</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-7.065874750679596</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004556345.1_0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2.186463513297675</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.697718126838525</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-7.239052062230294</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900319465.1_0</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.816345283608551</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.596011116979152</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-8.013787711719932</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900548625.1_0</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-2.380273492955439</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.874423296043254</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.860391941207797</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002405995.1_0</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.984666150584149</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5.386873562583508</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-5.842150663871123</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900546415.1_0</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-2.474566172041036</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.226881784791731</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-4.985902955757328</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003487665.1_0</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-5.026680951527617</v>
+      </c>
+      <c r="C22" t="n">
+        <v>8.852539608328165</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-4.769589814043186</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001916715.1_0</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1645578496156059</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.576834305579942</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.019588369355606</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900316205.1_0</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.517139321705691</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.881568067811172</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-7.297278313937348</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900544295.1_0</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.107255198757402</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.772301979027408</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-6.103891670728991</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002359425.1_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.28138484793146</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1147982667216991</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1.769755094210576</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900546515.1_0</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.309097815489312</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.8480312716337706</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-2.432195378120733</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900553545.1_0</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-2.94163226234335</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.973987667784912</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4.255390203781299</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900543085.1_0</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.497148529908938</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.125885026733611</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-7.241025214451585</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002161235.1_0</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.35339784789461</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.509389762059827</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-4.129287782198117</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900545405.1_0</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-2.854112050734691</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.306441435967854</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-5.679390932530453</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_004557655.1_0</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.7831178721581326</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.208233952605481</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-3.602610985793182</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900321275.1_0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-1.060580946247272</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.662838066736741</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-6.216114592491643</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900550165.1_0</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.294503945290079</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.852015095430293</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-7.241822859581211</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900316335.1_0</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.3981110997198</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.727015372252482</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.4418282481748443</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002841545.1_0</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4534377695274747</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2.025489153176292</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.9107344498226934</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002160145.1_0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-3.958371285831042</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2640622427940091</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.827844309361993</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900119155.1_0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.232365231165688</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-3.90876878484591</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.19560639504051</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_001940995.1_0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.265895536787047</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5.03631835363699</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.1135253923066365</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900542145.1_0</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.8902777897200596</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-5.759724085382529</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.505970660645002</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002449585.1_0</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.8262170870598238</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-14.14013974807299</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.864884546860537</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002550015.1_0</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-5.664379958474317</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3.984617039895095</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.766908412717854</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002394695.1_0</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.0230643911063534</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-3.578140638348117</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.131064403119941</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_000437255.1_0</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.6597315592520292</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.765518922006229</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6903950855375802</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000712055.1_0</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1334952275958836</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6.44092273183893</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6470770018354776</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003150405.1_0</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.005435723595823418</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.995185051395848</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.303848173978143</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900551505.1_0</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.06913250471518953</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-9.86655417493149</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.7957302200776537</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000621805.1_0</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.382185537660137</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-7.948022396763207</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.38543025574246</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900104495.1_0</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.7446540607604993</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-3.387400835596521</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6005503653573361</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000154565.1_0</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.4482996935748194</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.634284390936826</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-2.943913086980286</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000949455.1_0</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-2.09260717833502</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.393551926943904</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.8179879266833913</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002550035.1_0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2.690609856830079</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-2.198961328045864</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.024418701271169</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002309635.1_0</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.5350228377975299</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-9.442626185155374</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.680978372620027</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002305725.1_0</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.3089378919913955</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-7.373257050959261</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.4478701154021839</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900315755.1_0</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.049110683332342</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-6.743759186474613</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.134176704158851</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002160915.1_0</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-3.400905657162188</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.736320091999545</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.339966221496116</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900104615.1_0</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.182734601719046</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-4.256895627296304</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.328888873459805</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002306375.1_0</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-4.716075078414411</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-5.383271888373353</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.299544864062234</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900066845.1_0</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.6075858557932245</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-13.80475531803333</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-2.69269946153989</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900539945.1_0</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-3.260962174145312</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.619602759912903</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.694076131274127</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_000526775.1_0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.4264763672567897</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-7.51364310934952</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.976744345904933</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002369315.1_0</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1716396080829847</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-5.830342888097986</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.3636594735454652</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_003150145.1_0</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5151850602557677</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.857472115405049</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-2.191364826427711</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900543295.1_0</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9160249275064918</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-5.024162245039635</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-2.001945068030829</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900112155.1_0</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.09366814852027067</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-5.858648259041003</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8409873221299221</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_900543105.1_0</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.156740612966737</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-6.709436726185973</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.359288496873566</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_900103835.1_0</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.340498234485772</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.1024652173707395</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1.993670253401322</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>f__Acutalibacteraceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>GB_GCA_002394125.1_0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-1.180959334589418</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-5.423743132133764</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.3393798655535564</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_002549975.1_0</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-3.944198636971411</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-2.788430524435813</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.629794088471979</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f__Ruminococcaceae</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RS_GCF_001486165.1_0</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.632091001619653</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.370353654775576</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1.553902730592833</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>f__Oscillospiraceae</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>